--- a/UnityUtilityToolkit/Assets/Excels/属性表.xlsx
+++ b/UnityUtilityToolkit/Assets/Excels/属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="属性表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>道具id</t>
   </si>
@@ -177,12 +177,6 @@
   </si>
   <si>
     <t>LUJO</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>大书，帽子</t>
   </si>
   <si>
     <t>2,4,5</t>
@@ -1348,14 +1342,14 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="99.875" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="6" width="29.375" customWidth="1"/>
     <col min="7" max="7" width="23.625" customWidth="1"/>
@@ -1561,19 +1555,16 @@
       <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
